--- a/biology/Mycologie/Leotia/Leotia.xlsx
+++ b/biology/Mycologie/Leotia/Leotia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leotia est un genre de champignons ascomycètes de la famille des Leotiaceae et de l'ordre des Helotiales.
 </t>
@@ -511,13 +523,50 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Leotia est établi par Christiaan Hendrik Persoon en 1794 avec L. lubrica comme espèce type. Il est caractérisé par des ascospores multiguttulées (c'est-à-dire comprenant plusieurs gouttes de lipide) et hyalines similaires à celles trouvées au sein de la famille des Geoglossaceae. Cependant, leur couleur et structure diffèrent de tous les autres genres de cette famille. Les études moléculaires des années 2000 ne sont pas parvenues à établir des relations phylogénétiques claires[2]. En 1987, Erikson et Hawksworth[3] acceptent 108 genres tandis que Lumbusch, et al.[4] n'en acceptent que 6, les limites au sein des genres, familles et ordres n'étant pas bien définies ; le genre Leotia suivant cette logique[5].
-Synonymie
-Cucullaria Corda[6]
-Fungodaster Haller ex Kuntze[6]
-Hygromitra Nees[6]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Leotia est établi par Christiaan Hendrik Persoon en 1794 avec L. lubrica comme espèce type. Il est caractérisé par des ascospores multiguttulées (c'est-à-dire comprenant plusieurs gouttes de lipide) et hyalines similaires à celles trouvées au sein de la famille des Geoglossaceae. Cependant, leur couleur et structure diffèrent de tous les autres genres de cette famille. Les études moléculaires des années 2000 ne sont pas parvenues à établir des relations phylogénétiques claires. En 1987, Erikson et Hawksworth acceptent 108 genres tandis que Lumbusch, et al. n'en acceptent que 6, les limites au sein des genres, familles et ordres n'étant pas bien définies ; le genre Leotia suivant cette logique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Leotia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leotia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cucullaria Corda
+Fungodaster Haller ex Kuntze
+Hygromitra Nees
 	Quelques espèces du genre Leotia
 			Leotia lubrica
 			Leotia lubrica, ascospores multiguttulées
@@ -527,33 +576,35 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Leotia</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Leotia</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Index Fungorum                                      (09 septembre 2021)[7] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum                                      (09 septembre 2021) :
 Leotia affinis Velen. 1934
 Leotia atra Weinm. 1856
 Leotia atrocyanea Velen. 1934
@@ -581,33 +632,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Leotia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Mycologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Leotia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Les espèces présentes en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon INPN      (09 septembre 2021)[8] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon INPN      (09 septembre 2021) :
 Leotia atrovirens Pers. : Fr.
 Leotia lubrica (Scop.) Pers. : Fr.
 Leotia marcida (Müller) Pers.
